--- a/biology/Médecine/Activité_thérapeutique/Activité_thérapeutique.xlsx
+++ b/biology/Médecine/Activité_thérapeutique/Activité_thérapeutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Activit%C3%A9_th%C3%A9rapeutique</t>
+          <t>Activité_thérapeutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité thérapeutique en psychiatrie est un support pour continuer de développer le travail thérapeutique.  
 Les activités thérapeutiques doivent pouvoir répondre aux besoins des patients, aux différents courants psychiatriques présents dans l'hôpital (psychothérapique, comportementaliste, psychanalytique).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Activit%C3%A9_th%C3%A9rapeutique</t>
+          <t>Activité_thérapeutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Proposer aux patients psychotiques ou déprimés un espace d'expression par le biais d'un médiateur. Permettre aux patients d'exprimer leur souffrance.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Activit%C3%A9_th%C3%A9rapeutique</t>
+          <t>Activité_thérapeutique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les indications sont retenues lors des réunions cliniques et fondées sur la situation psychologique du patient.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Activit%C3%A9_th%C3%A9rapeutique</t>
+          <t>Activité_thérapeutique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +593,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activités à visée psychothérapique
-Permettre au patient d'avoir un espace pour exprimer ses émotions, ses sensations, son histoire de vie. Faire jouer l'expression singulière de chacun quelle soit symptomatique ou non à travers différents médiateurs : 
+          <t>Activités à visée psychothérapique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Permettre au patient d'avoir un espace pour exprimer ses émotions, ses sensations, son histoire de vie. Faire jouer l'expression singulière de chacun quelle soit symptomatique ou non à travers différents médiateurs : 
 le conte est un support de médiation très utilisé en psychiatrie notamment en pédopsychiatrie dans les hôpitaux de jour. À travers différents récits traitant de situations préoccupantes, dangereuses et angoissantes, on créé un espace projectif qui va permettre des interactions entre les participants de l'atelier ;
 marionnettes ;
 théâtre ;
-jeux de rôle.
-Activités orientées vers la prise en charge corporelle
-Équithérapie, bain thérapeutique, pataugeoire
-Activités à visée éducative et pédagogique
-Peinture, jeux de construction, jeux d'encastrements
+jeux de rôle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Activité_thérapeutique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Activit%C3%A9_th%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types d'activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités orientées vers la prise en charge corporelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Équithérapie, bain thérapeutique, pataugeoire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Activité_thérapeutique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Activit%C3%A9_th%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différents types d'activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activités à visée éducative et pédagogique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peinture, jeux de construction, jeux d'encastrements
  Portail de la médecine   Portail de la psychologie                    </t>
         </is>
       </c>
